--- a/storage/import/inventory_report.xlsx
+++ b/storage/import/inventory_report.xlsx
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -58,6 +58,10 @@
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -100,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -121,6 +125,9 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -387,6 +394,966 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
+    <row r="7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="5"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="5"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="5"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="5"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="5"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="5"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="5"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="5"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="5"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="5"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="5"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="5"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="5"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="5"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="5"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="5"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="5"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="5"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="5"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="5"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="5"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="5"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="5"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="5"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="5"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="5"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="5"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="5"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="5"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="5"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="5"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="5"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="5"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="5"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="5"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="5"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="5"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="5"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="5"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="5"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="5"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="5"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="5"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="5"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="5"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="5"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="5"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="5"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="5"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="5"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="5"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="5"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="5"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="5"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="5"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="5"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="5"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="5"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="5"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="5"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="5"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="5"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="5"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="5"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="5"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="5"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="5"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="5"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="5"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="5"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="5"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="5"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="5"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="5"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="5"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="5"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="5"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="5"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="5"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="5"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="5"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="5"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="5"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="5"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="5"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="5"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="5"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="5"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="5"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="5"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="5"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="5"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="5"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="5"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="5"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="5"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="5"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="5"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="5"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
